--- a/DataAnalyzer/assets/Base.xlsx
+++ b/DataAnalyzer/assets/Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://norsat-my.sharepoint.com/personal/iyoneda_norsat_com/Documents/Python/AnalysisTool/DataAnalyzer/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://photonicinc-my.sharepoint.com/personal/iyoneda_photonic_com/Documents/Python/AnalysisTool/DataAnalyzer/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{BEC3F7D4-8921-439B-8109-7BFE8E80C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{250CE812-3D3B-4527-A2F0-2327897C1F2C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2BB9F392-3535-463C-880D-BA742506268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{877B0140-294C-4131-9F4E-DFBD81AD6663}"/>
   <bookViews>
-    <workbookView xWindow="-26010" yWindow="690" windowWidth="27135" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,12 +168,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -196,29 +233,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -230,23 +268,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -258,7 +306,17 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -270,58 +328,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -344,7 +351,17 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -356,7 +373,18 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -364,6 +392,40 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -646,415 +708,471 @@
   <dimension ref="A1:AE121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="8"/>
-    <col min="2" max="2" width="11.140625" style="6"/>
-    <col min="3" max="3" width="11.140625" style="8"/>
-    <col min="4" max="4" width="11.140625" style="9"/>
-    <col min="5" max="16384" width="11.140625" style="8"/>
+    <col min="1" max="1" width="11.1796875" style="8"/>
+    <col min="2" max="2" width="11.1796875" style="6"/>
+    <col min="3" max="3" width="11.1796875" style="8"/>
+    <col min="4" max="4" width="11.1796875" style="9"/>
+    <col min="5" max="9" width="11.1796875" style="8"/>
+    <col min="10" max="10" width="14.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="14"/>
       <c r="AE1" s="10"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="AE2" s="10"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="17"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="8"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="8"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="8"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="8"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="8"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="8"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="8"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="8"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="8"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="7"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="7"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="7"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="7"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="7"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="7"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="7"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="7"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="7"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="7"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="7"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="7"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="7"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="7"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="7"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="7"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="7"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="7"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="7"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="7"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AH8" xr:uid="{E11C5BC6-75AA-4A78-9A0E-0AFFB2B8E0BF}"/>
   <conditionalFormatting sqref="A4:XFD1048576">
-    <cfRule type="expression" dxfId="16" priority="10">
-      <formula>NOT(COUNTIF($O4,"*In Stock*"))</formula>
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$P4="Obsolete"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
-      <formula>$M4="Part Number Change"</formula>
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$P4="End of Life"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
-      <formula>$M4="End of Life"</formula>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>$P4="Not Recommended for New Designs"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>$M4="Obsolete"</formula>
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>$P4="Part Number Change"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>$M4="Not Recommended for New Designs"</formula>
+    <cfRule type="expression" dxfId="14" priority="5">
+      <formula>OR(COUNTIF($N4,"*85*"),COUNTIF($N4,"*70*"),COUNTIF($N4,"*60*"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>$C4="-"</formula>
+    <cfRule type="expression" dxfId="17" priority="6">
+      <formula>$L4="X5R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>$J4="X5R"</formula>
+    <cfRule type="expression" dxfId="16" priority="7">
+      <formula>ISBLANK($A4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>COUNTIF($K4,"*85*")</formula>
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>$Q4="0"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>ISBLANK($A4)</formula>
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$C4="Not Registered"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1070,42 +1188,42 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
